--- a/proj4documentation/TimeAccounting_EECS448project4.xlsx
+++ b/proj4documentation/TimeAccounting_EECS448project4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aidan\Desktop\ku\junior spring\EECS 448Projects\FinalProject\EECS448_Project3\proj4documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jport\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E0425C-3BD1-42CA-8BCD-834B4025B11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447ECA29-1DA5-46DF-BDBF-22442633F02E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="18060" windowHeight="10416" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23985" yWindow="1875" windowWidth="26310" windowHeight="18285" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -279,11 +279,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -299,7 +296,6 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -348,6 +344,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,710 +732,766 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.19921875" customWidth="1"/>
-    <col min="2" max="26" width="7.69921875" customWidth="1"/>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="2" max="26" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="64"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="9" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="10" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="11" t="s">
+      <c r="O1" s="7"/>
+      <c r="P1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="2" t="s">
+      <c r="Q1" s="8"/>
+      <c r="R1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="66">
         <f>R3+R4+R5+R6+R7+R8+R9+R10+R11+R12+R13</f>
-        <v>0.37500000000000111</v>
+        <v>2.1458333333333344</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="6" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="1"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="66"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="13">
+      <c r="A3" s="10">
         <v>44298</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16">
+      <c r="C3" s="12"/>
+      <c r="D3" s="13">
         <v>0.85416666666666696</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="13">
         <v>0.875</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24">
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="31">
+        <v>0.375</v>
+      </c>
+      <c r="I3" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="20">
         <f>(E3-D3)+(I3-H3)+(K3-J3)+(M3-L3)+(O3-N3)+(Q3-P3)</f>
-        <v>2.0833333333333037E-2</v>
+        <v>0.39583333333333304</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="13">
+      <c r="A4" s="10">
         <v>44299</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="27">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="31">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I4" s="31">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="23">
         <f>(E4-D4)+(I4-H4)+(K4-J4)+(M4-L4)+(O4-N4)+(Q4-P4)</f>
-        <v>0</v>
+        <v>0.12500000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="13">
+      <c r="A5" s="10">
         <v>44300</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="26">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="31">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I5" s="31">
+        <v>0.8125</v>
+      </c>
+      <c r="J5" s="22">
         <v>0.27083333333333298</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="22">
         <v>0.35416666666666702</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="27">
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="23">
         <f>(E5-D5)+(I5-H5)+(K5-J5)+(M5-L5)+(O5-N5)+(Q5-P5)</f>
-        <v>8.3333333333334036E-2</v>
+        <v>0.22916666666666741</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="13">
+      <c r="A6" s="10">
         <v>44301</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="31">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I6" s="31">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="J6" s="22">
         <v>0.33333333333333298</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="22">
         <v>0.375</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="27">
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="23">
         <f>(E6-D6)+(I6-H6)+(K6-J6)+(M6-L6)+(O6-N6)+(Q6-P6)</f>
-        <v>4.1666666666667018E-2</v>
+        <v>0.14583333333333376</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A7" s="13">
+      <c r="A7" s="10">
         <v>44302</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="26">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="31">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I7" s="31">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J7" s="22">
         <v>0.20833333333333301</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="22">
         <v>0.3125</v>
       </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="27">
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="23">
         <f>(E7-D7)+(I7-H7)+(K7-J7)+(M7-L7)+(O7-N7)+(Q7-P7)</f>
-        <v>0.10416666666666699</v>
+        <v>0.22916666666666693</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A8" s="13">
+      <c r="A8" s="10">
         <v>44303</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="26">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="31">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I8" s="31">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="J8" s="22">
         <v>0.33333333333333298</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="22">
         <v>0.375</v>
       </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="27">
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="23">
         <f>(E8-D8)+(G8-F8)+(I8-H8)+(K8-J8)+(M8-L8)+(O8-N8)+(Q8-P8)</f>
-        <v>4.1666666666667018E-2</v>
+        <v>0.16666666666666702</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="27">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="27">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I9" s="31">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="23">
         <f>(E9-D9)+(I9-H9)+(K9-J9)+(M9-L9)+(O9-N9)+(Q9-P9)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A10" s="13">
+      <c r="A10" s="10">
         <v>44305</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="37">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="27">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I10" s="31">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="33">
         <v>0.75</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="33">
         <v>0.85416666666666663</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="27">
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="23">
         <f>(E10-D10)+(I10-H10)</f>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A11" s="13">
+      <c r="A11" s="10">
         <v>44306</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="27">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="31">
+        <v>0.875</v>
+      </c>
+      <c r="I11" s="31">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="23">
         <f t="shared" ref="R11:R16" si="0">(E11-D11)+(I11-H11)+(K11-J11)+(M11-L11)+(O11-N11)+(Q11-P11)</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A12" s="13">
+      <c r="A12" s="10">
         <v>44307</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="27">
+      <c r="B12" s="30"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="31">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I12" s="31">
+        <v>0.5625</v>
+      </c>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10416666666666669</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A13" s="13">
+      <c r="A13" s="10">
         <v>44308</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="36">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="31">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I13" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="J13" s="32">
         <v>0.22916666666666699</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="32">
         <v>0.3125</v>
       </c>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="27">
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="23">
         <f t="shared" si="0"/>
-        <v>8.333333333333301E-2</v>
+        <v>0.4166666666666663</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A14" s="13">
+      <c r="A14" s="10">
         <v>44309</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="16">
+      <c r="C14" s="15"/>
+      <c r="D14" s="13">
         <v>0.70833333333333304</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="13">
         <v>0.72222222222222199</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20">
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="31">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I14" s="31">
+        <v>0.875</v>
+      </c>
+      <c r="J14" s="16">
         <v>0.25</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="16">
         <v>0.27083333333333298</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="33">
         <v>0.83333333333333337</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="33">
         <v>0.86458333333333337</v>
       </c>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="27">
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="23">
         <f t="shared" si="0"/>
-        <v>6.5972222222221932E-2</v>
-      </c>
-      <c r="S14" s="39"/>
+        <v>0.2743055555555553</v>
+      </c>
+      <c r="S14" s="35"/>
     </row>
     <row r="15" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A15" s="13">
+      <c r="A15" s="10">
         <v>44310</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="26">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="31">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I15" s="31">
+        <v>0.625</v>
+      </c>
+      <c r="J15" s="22">
         <v>0.375</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="22">
         <v>0.38541666666666702</v>
       </c>
-      <c r="L15" s="37">
+      <c r="L15" s="33">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="33">
         <v>0.16666666666666666</v>
       </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="27">
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="23">
         <f t="shared" si="0"/>
-        <v>9.3750000000000347E-2</v>
-      </c>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
+        <v>0.26041666666666702</v>
+      </c>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
     </row>
     <row r="16" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A16" s="13">
+      <c r="A16" s="10">
         <v>44311</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="26">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="31">
+        <v>0.375</v>
+      </c>
+      <c r="I16" s="31">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J16" s="22">
         <v>0.27083333333333298</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="22">
         <v>0.375</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="33">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="33">
         <v>0.99930555555555556</v>
       </c>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="27">
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="23">
         <f t="shared" si="0"/>
-        <v>0.56180555555555589</v>
-      </c>
-      <c r="S16" s="41"/>
-      <c r="T16" s="42"/>
+        <v>0.72847222222222263</v>
+      </c>
+      <c r="S16" s="37"/>
+      <c r="T16" s="38"/>
     </row>
     <row r="17" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="42"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="38"/>
     </row>
     <row r="18" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A18" s="46"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="42"/>
+      <c r="A18" s="42"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="38"/>
     </row>
     <row r="19" spans="1:20" ht="14.25" customHeight="1">
-      <c r="Q19" s="39"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="42"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="38"/>
     </row>
     <row r="20" spans="1:20" ht="14.25" customHeight="1">
-      <c r="Q20" s="39"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="42"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="38"/>
     </row>
     <row r="21" spans="1:20" ht="14.25" customHeight="1">
-      <c r="R21" s="49"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="42"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="38"/>
     </row>
     <row r="22" spans="1:20" ht="14.25" customHeight="1">
-      <c r="L22" s="50" t="s">
+      <c r="L22" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="42"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="38"/>
     </row>
     <row r="23" spans="1:20" ht="14.25" customHeight="1">
-      <c r="K23" s="39" t="s">
+      <c r="K23" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="52"/>
-      <c r="M23" s="53">
+      <c r="L23" s="48"/>
+      <c r="M23" s="49">
         <f>(Q3-P3)+(Q4-P4)+(Q5-P5)+(Q6-P6)+(Q7-P7)+(Q8-P8)+(Q9-P9)+(Q10-P10)+(Q11-P11)+(Q12-P12)+(Q13-P13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)+(E14-D14)+(E15-D15)+(E16-D16)+(Q14-P14)+(Q15-P15)+(Q16-P16)</f>
         <v>3.4722222222221988E-2</v>
       </c>
-      <c r="R23" s="54"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="42"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="38"/>
     </row>
     <row r="24" spans="1:20" ht="14.25" customHeight="1">
-      <c r="K24" s="39" t="s">
+      <c r="K24" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="55"/>
-      <c r="M24" s="56">
+      <c r="L24" s="51"/>
+      <c r="M24" s="52">
         <f>(O3-N3)+(O4-N4)+(O5-N5)+(O6-N6)+(O7-N7)+(O8-N8)+(O9-N9)+(O10-N10)+(O11-N11)+(O12-N12)+(O13-N13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)+(E14-D14)+(E15-D15)+(E16-D16)+(O14-N14)+(O15-N15)+(O16-N16)</f>
         <v>3.4722222222221988E-2</v>
       </c>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="42"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="38"/>
     </row>
     <row r="25" spans="1:20" ht="14.25" customHeight="1">
-      <c r="K25" s="39" t="s">
+      <c r="K25" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="57"/>
-      <c r="M25" s="58">
+      <c r="L25" s="53"/>
+      <c r="M25" s="54">
         <f>(M3-L3)+(M4-L4)+(M5-L5)+(M6-L6)+(M7-L7)+(M8-L8)+(M9-L9)+(M10-L10)+(M11-L11)+(M12-L12)+(M13-L13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)+(E14-D14)+(E15-D15)+(E16-D16)+(M14-L14)+(M15-L15)+(M16-L16)</f>
         <v>0.71111111111111081</v>
       </c>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="42"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="38"/>
     </row>
     <row r="26" spans="1:20" ht="14.25" customHeight="1">
-      <c r="K26" s="39" t="s">
+      <c r="K26" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="59"/>
-      <c r="M26" s="60">
+      <c r="L26" s="55"/>
+      <c r="M26" s="56">
         <f>(K3-J3)+(K4-J4)+(K5-J5)+(K6-J6)+(K7-J7)+(K8-J8)+(K9-J9)+(K10-J10)+(K11-J11)+(K12-J12)+(K13-J13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)+(E14-D14)+(E15-D15)+(E16-D16)+(K14-J14)+(K15-J15)+(K16-J16)</f>
         <v>0.52430555555555713</v>
       </c>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="42"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="38"/>
     </row>
     <row r="27" spans="1:20" ht="14.25" customHeight="1">
-      <c r="K27" s="39" t="s">
+      <c r="K27" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="L27" s="61"/>
-      <c r="M27" s="62">
+      <c r="L27" s="57"/>
+      <c r="M27" s="58">
         <f>(I3-H3)+(I4-H4)+(I5-H5)+(I6-H6)+(I7-H7)+(I8-H8)+(I9-H9)+(I10-H10)+(I11-H11)+(I12-H12)+(I13-H13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)+(E14-D14)+(E15-D15)+(E16-D16)+(I14-H14)+(I15-H15)+(I16-H16)</f>
-        <v>3.4722222222221988E-2</v>
-      </c>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="42"/>
+        <v>2.3472222222222219</v>
+      </c>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="38"/>
     </row>
     <row r="28" spans="1:20" ht="14.25" customHeight="1">
-      <c r="L28" s="63" t="s">
+      <c r="L28" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="M28" s="64"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="42"/>
+      <c r="M28" s="60"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="38"/>
     </row>
     <row r="29" spans="1:20" ht="14.25" customHeight="1">
-      <c r="L29" s="65"/>
-      <c r="M29" s="66">
+      <c r="L29" s="61"/>
+      <c r="M29" s="62">
         <f>(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
         <v>2.0833333333333037E-2</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="14.25" customHeight="1">
-      <c r="L30" s="50" t="s">
+      <c r="L30" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="M30" s="51"/>
+      <c r="M30" s="47"/>
     </row>
     <row r="31" spans="1:20" ht="14.25" customHeight="1">
-      <c r="K31" s="39" t="s">
+      <c r="K31" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="52"/>
-      <c r="M31" s="53">
+      <c r="L31" s="48"/>
+      <c r="M31" s="49">
         <f>(Q3-P3)+(Q4-P4)+(Q5-P5)+(Q6-P6)+(Q7-P7)+(Q8-P8)+(Q9-P9)+(Q10-P10)+(Q11-P11)+(Q12-P12)+(Q13-P13)+(Q14-P14)+(Q15-P15)+(Q16-P16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="14.25" customHeight="1">
-      <c r="K32" s="39" t="s">
+      <c r="K32" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="55"/>
-      <c r="M32" s="56">
+      <c r="L32" s="51"/>
+      <c r="M32" s="52">
         <f>(O3-N3)+(O4-N4)+(O5-N5)+(O6-N6)+(O7-N7)+(O8-N8)+(O9-N9)+(O10-N10)+(O11-N11)+(O12-N12)+(O13-N13)+(O14-N14)+(O15-N15)+(O16-N16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="11:13" ht="14.25" customHeight="1">
-      <c r="K33" s="39" t="s">
+      <c r="K33" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="57"/>
-      <c r="M33" s="58">
+      <c r="L33" s="53"/>
+      <c r="M33" s="54">
         <f>(M3-L3)+(M4-L4)+(M5-L5)+(M6-L6)+(M7-L7)+(M8-L8)+(M9-L9)+(M10-L10)+(M11-L11)+(M12-L12)+(M13-L13)+(M14-L14)+(M15-L15)+(M16-L16)</f>
         <v>0.67638888888888893</v>
       </c>
     </row>
     <row r="34" spans="11:13" ht="14.25" customHeight="1">
-      <c r="K34" s="39" t="s">
+      <c r="K34" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="L34" s="59"/>
-      <c r="M34" s="67">
+      <c r="L34" s="55"/>
+      <c r="M34" s="63">
         <f>(K3-J3)+(K4-J4)+(K5-J5)+(K6-J6)+(K7-J7)+(K8-J8)+(K9-J9)+(K10-J10)+(K11-J11)+(K12-J12)+(K13-J13)+(K14-J14)+(K15-J15)+(K16-J16)</f>
         <v>0.48958333333333509</v>
       </c>
     </row>
     <row r="35" spans="11:13" ht="14.25" customHeight="1">
-      <c r="K35" s="39" t="s">
+      <c r="K35" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="L35" s="61"/>
-      <c r="M35" s="62">
+      <c r="L35" s="57"/>
+      <c r="M35" s="58">
         <f>(I3-H3)+(I4-H4)+(I5-H5)+(I6-H6)+(I7-H7)+(I8-H8)+(I9-H9)+(I10-H10)+(I11-H11)+(I12-H12)+(I13-H13)+(I14-H14)+(I15-H15)+(I16-H16)</f>
-        <v>0</v>
+        <v>2.3125</v>
       </c>
     </row>
     <row r="36" spans="11:13" ht="14.25" customHeight="1"/>

--- a/proj4documentation/TimeAccounting_EECS448project4.xlsx
+++ b/proj4documentation/TimeAccounting_EECS448project4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jport\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katelynblackburn/Desktop/College/2021 Spring/EECS 448/Project3/EECS448_Project3/proj4documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447ECA29-1DA5-46DF-BDBF-22442633F02E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358B6A27-B707-E845-A808-3CD097598C2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23985" yWindow="1875" windowWidth="26310" windowHeight="18285" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -732,13 +732,18 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="26" width="7.75" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" customHeight="1">
@@ -782,7 +787,7 @@
       </c>
       <c r="S1" s="66">
         <f>R3+R4+R5+R6+R7+R8+R9+R10+R11+R12+R13</f>
-        <v>2.1458333333333344</v>
+        <v>2.2291666666666679</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
@@ -986,13 +991,17 @@
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
+      <c r="N7" s="28">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="O7" s="28">
+        <v>0.625</v>
+      </c>
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
       <c r="R7" s="23">
         <f>(E7-D7)+(I7-H7)+(K7-J7)+(M7-L7)+(O7-N7)+(Q7-P7)</f>
-        <v>0.22916666666666693</v>
+        <v>0.31250000000000033</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="14.25" customHeight="1">
@@ -1081,8 +1090,12 @@
       <c r="M10" s="33">
         <v>0.85416666666666663</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
+      <c r="N10" s="28">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O10" s="28">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="P10" s="29"/>
       <c r="Q10" s="29"/>
       <c r="R10" s="23">
@@ -1245,7 +1258,7 @@
         <v>0.375</v>
       </c>
       <c r="K15" s="22">
-        <v>0.38541666666666702</v>
+        <v>0.88541666666666663</v>
       </c>
       <c r="L15" s="33">
         <v>8.3333333333333329E-2</v>
@@ -1253,13 +1266,17 @@
       <c r="M15" s="33">
         <v>0.16666666666666666</v>
       </c>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
+      <c r="N15" s="28">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="O15" s="28">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="23">
         <f t="shared" si="0"/>
-        <v>0.26041666666666702</v>
+        <v>1.09375</v>
       </c>
       <c r="S15" s="36"/>
       <c r="T15" s="36"/>
@@ -1284,7 +1301,7 @@
         <v>0.27083333333333298</v>
       </c>
       <c r="K16" s="22">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="L16" s="33">
         <v>0.54166666666666663</v>
@@ -1292,13 +1309,17 @@
       <c r="M16" s="33">
         <v>0.99930555555555556</v>
       </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
+      <c r="N16" s="28">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="O16" s="28">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="23">
         <f t="shared" si="0"/>
-        <v>0.72847222222222263</v>
+        <v>1.7284722222222224</v>
       </c>
       <c r="S16" s="37"/>
       <c r="T16" s="38"/>
@@ -1372,7 +1393,7 @@
       <c r="L24" s="51"/>
       <c r="M24" s="52">
         <f>(O3-N3)+(O4-N4)+(O5-N5)+(O6-N6)+(O7-N7)+(O8-N8)+(O9-N9)+(O10-N10)+(O11-N11)+(O12-N12)+(O13-N13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)+(E14-D14)+(E15-D15)+(E16-D16)+(O14-N14)+(O15-N15)+(O16-N16)</f>
-        <v>3.4722222222221988E-2</v>
+        <v>1.0347222222222219</v>
       </c>
       <c r="Q24" s="35"/>
       <c r="R24" s="43"/>
@@ -1400,7 +1421,7 @@
       <c r="L26" s="55"/>
       <c r="M26" s="56">
         <f>(K3-J3)+(K4-J4)+(K5-J5)+(K6-J6)+(K7-J7)+(K8-J8)+(K9-J9)+(K10-J10)+(K11-J11)+(K12-J12)+(K13-J13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)+(E14-D14)+(E15-D15)+(E16-D16)+(K14-J14)+(K15-J15)+(K16-J16)</f>
-        <v>0.52430555555555713</v>
+        <v>1.5243055555555567</v>
       </c>
       <c r="Q26" s="35"/>
       <c r="R26" s="43"/>
@@ -1461,7 +1482,7 @@
       <c r="L32" s="51"/>
       <c r="M32" s="52">
         <f>(O3-N3)+(O4-N4)+(O5-N5)+(O6-N6)+(O7-N7)+(O8-N8)+(O9-N9)+(O10-N10)+(O11-N11)+(O12-N12)+(O13-N13)+(O14-N14)+(O15-N15)+(O16-N16)</f>
-        <v>0</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="33" spans="11:13" ht="14.25" customHeight="1">
@@ -1481,7 +1502,7 @@
       <c r="L34" s="55"/>
       <c r="M34" s="63">
         <f>(K3-J3)+(K4-J4)+(K5-J5)+(K6-J6)+(K7-J7)+(K8-J8)+(K9-J9)+(K10-J10)+(K11-J11)+(K12-J12)+(K13-J13)+(K14-J14)+(K15-J15)+(K16-J16)</f>
-        <v>0.48958333333333509</v>
+        <v>1.4895833333333346</v>
       </c>
     </row>
     <row r="35" spans="11:13" ht="14.25" customHeight="1">

--- a/proj4documentation/TimeAccounting_EECS448project4.xlsx
+++ b/proj4documentation/TimeAccounting_EECS448project4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katelynblackburn/Desktop/College/2021 Spring/EECS 448/Project3/EECS448_Project3/proj4documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aidan\Desktop\ku\junior spring\EECS 448Projects\FinalProject\EECS448_Project3\proj4documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358B6A27-B707-E845-A808-3CD097598C2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A7C6D8-25C3-4AC1-AD8F-2C1E1EF39469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="18060" windowHeight="10416" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -731,19 +731,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
-    <col min="2" max="9" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" customWidth="1"/>
+    <col min="2" max="9" width="7.69921875" customWidth="1"/>
     <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.69921875" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="26" width="7.6640625" customWidth="1"/>
+    <col min="14" max="26" width="7.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" customHeight="1">
@@ -787,7 +787,7 @@
       </c>
       <c r="S1" s="66">
         <f>R3+R4+R5+R6+R7+R8+R9+R10+R11+R12+R13</f>
-        <v>2.2291666666666679</v>
+        <v>2.2916666666666679</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
@@ -1121,15 +1121,19 @@
       </c>
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
+      <c r="L11" s="33">
+        <v>0.875</v>
+      </c>
+      <c r="M11" s="33">
+        <v>0.9375</v>
+      </c>
       <c r="N11" s="28"/>
       <c r="O11" s="28"/>
       <c r="P11" s="29"/>
       <c r="Q11" s="29"/>
       <c r="R11" s="23">
         <f t="shared" ref="R11:R16" si="0">(E11-D11)+(I11-H11)+(K11-J11)+(M11-L11)+(O11-N11)+(Q11-P11)</f>
-        <v>8.333333333333337E-2</v>
+        <v>0.14583333333333337</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="14.25" customHeight="1">
@@ -1261,7 +1265,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="L15" s="33">
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="M15" s="33">
         <v>0.16666666666666666</v>
@@ -1276,7 +1280,7 @@
       <c r="Q15" s="19"/>
       <c r="R15" s="23">
         <f t="shared" si="0"/>
-        <v>1.09375</v>
+        <v>1.1770833333333333</v>
       </c>
       <c r="S15" s="36"/>
       <c r="T15" s="36"/>
@@ -1407,7 +1411,7 @@
       <c r="L25" s="53"/>
       <c r="M25" s="54">
         <f>(M3-L3)+(M4-L4)+(M5-L5)+(M6-L6)+(M7-L7)+(M8-L8)+(M9-L9)+(M10-L10)+(M11-L11)+(M12-L12)+(M13-L13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)+(E14-D14)+(E15-D15)+(E16-D16)+(M14-L14)+(M15-L15)+(M16-L16)</f>
-        <v>0.71111111111111081</v>
+        <v>0.85694444444444418</v>
       </c>
       <c r="Q25" s="35"/>
       <c r="R25" s="41"/>
@@ -1492,7 +1496,7 @@
       <c r="L33" s="53"/>
       <c r="M33" s="54">
         <f>(M3-L3)+(M4-L4)+(M5-L5)+(M6-L6)+(M7-L7)+(M8-L8)+(M9-L9)+(M10-L10)+(M11-L11)+(M12-L12)+(M13-L13)+(M14-L14)+(M15-L15)+(M16-L16)</f>
-        <v>0.67638888888888893</v>
+        <v>0.82222222222222219</v>
       </c>
     </row>
     <row r="34" spans="11:13" ht="14.25" customHeight="1">
